--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:20:42+00:00</t>
+    <t>2022-05-23T17:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T17:22:42+00:00</t>
+    <t>2022-05-26T15:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -237,7 +237,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AMPPModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>AMPPModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>AMPPModel.identifier</t>
@@ -253,9 +320,6 @@
     <t>AMPPModel.ingredient</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -302,10 +366,6 @@
   </si>
   <si>
     <t>AMPPModel.brandName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Brand name of the product</t>
@@ -651,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -662,7 +722,7 @@
   <cols>
     <col min="1" max="1" width="41.2265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -687,7 +747,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.2265625" customWidth="true" bestFit="true" hidden="true"/>
@@ -899,18 +959,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -921,7 +981,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -933,13 +993,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -990,13 +1050,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1005,20 +1065,20 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>73</v>
@@ -1033,15 +1093,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1078,22 +1140,22 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1102,15 +1164,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1118,10 +1180,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1133,13 +1195,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1190,13 +1252,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1210,7 +1272,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1221,7 +1283,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1233,13 +1295,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1290,13 +1352,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1310,7 +1372,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1333,13 +1395,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1390,7 +1452,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>79</v>
@@ -1410,7 +1472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1421,7 +1483,7 @@
         <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1433,13 +1495,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1490,13 +1552,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1510,7 +1572,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1533,13 +1595,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1590,7 +1652,7 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -1610,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1621,7 +1683,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1633,13 +1695,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1690,13 +1752,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1710,7 +1772,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1733,13 +1795,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1790,7 +1852,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -1810,7 +1872,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1833,13 +1895,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1890,7 +1952,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -1910,7 +1972,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1933,13 +1995,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1990,7 +2052,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2010,7 +2072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2018,7 +2080,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -2033,13 +2095,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2090,10 +2152,10 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2110,7 +2172,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2118,7 +2180,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -2133,13 +2195,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2190,21 +2252,221 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/AMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/AMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/AMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/AMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -720,42 +720,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.23046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/AMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/AMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T20:35:38+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/AMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/AMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/AMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/AMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:31:26+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,10 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -962,15 +958,15 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -981,25 +977,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1050,13 +1046,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1065,16 +1061,16 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1093,16 +1089,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1140,19 +1136,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1164,15 +1160,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1195,13 +1191,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1252,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1272,7 +1268,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1280,7 +1276,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>73</v>
@@ -1295,13 +1291,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1352,10 +1348,10 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1372,7 +1368,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1380,10 +1376,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1395,13 +1391,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1452,13 +1448,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1472,7 +1468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1480,10 +1476,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1495,13 +1491,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1552,13 +1548,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1572,7 +1568,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1580,10 +1576,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1595,13 +1591,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1652,13 +1648,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1672,7 +1668,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1680,7 +1676,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
@@ -1695,13 +1691,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1752,10 +1748,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1772,7 +1768,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1780,10 +1776,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1795,13 +1791,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1852,13 +1848,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1872,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1880,28 +1876,28 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1952,13 +1948,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -1972,7 +1968,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1980,10 +1976,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -1995,13 +1991,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2052,13 +2048,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2072,7 +2068,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2080,10 +2076,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2095,13 +2091,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2152,13 +2148,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2172,7 +2168,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2180,10 +2176,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2195,13 +2191,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2252,13 +2248,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2272,7 +2268,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2283,7 +2279,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2295,13 +2291,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2352,13 +2348,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2372,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2383,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2395,13 +2391,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2452,13 +2448,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AMPPModel.xlsx
+++ b/StructureDefinition-AMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
